--- a/Samhallet_translate/temptranslate.xlsx
+++ b/Samhallet_translate/temptranslate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Samhallet_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A489B64-63B4-45ED-9138-BD73E73DA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8727C5-3CF6-41BB-8189-846CAFB4138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="35" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="40" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,213 +37,579 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">Domstolarna dömer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genom en rättegång avgör domstolen om den misstänkte brottslingen är skyldig. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Åklagaren och den misstänkte får då ge sin syn på vad som har hänt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under rättegången kallas den misstänkte för åtalad. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domstolen fattar sedan beslut om den åtalade ska frias eller fällas för brottet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beslutet skrivs ner i form av en dom. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I domen står också vilket straff den skyldige ska få. </t>
-  </si>
-  <si>
-    <t>Både åklagaren och den dömde kan överklaga domen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Då kan fallet tas upp i en ny rättegång. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Åklagaren är ibland missnöjd för att domen var för mild. </t>
-  </si>
-  <si>
-    <t>Den dömde kan å andra sidan vilja ha en ny chans att visa sin oskuld, eller få ett mildare straff.</t>
-  </si>
-  <si>
-    <t>Brottsbalken är ett avsnitt i lagboken.</t>
-  </si>
-  <si>
-    <t>Där beskrivs olika typer av brott och hur domstolarna ska döma den som har begått ett visst brott.</t>
-  </si>
-  <si>
-    <t>Domstolarna kan alltså inte hitta på egna straff.</t>
-  </si>
-  <si>
-    <t>Åklagaren försöker genom sitt åtal bevisa att den misstänkte är skyldig till brottet.</t>
-  </si>
-  <si>
-    <t>Domaren leder rättegången.</t>
-  </si>
-  <si>
-    <t>Han eller hon beslutar om den åtalade är skyldig eller ej.</t>
-  </si>
-  <si>
-    <t>Försvararen ska hjälpa den åtalade så att han inte blir orättvist dömd.</t>
-  </si>
-  <si>
-    <t>Försvararen kallas ofta för advokat.</t>
-  </si>
-  <si>
-    <t>Både åklagare och försvarare kan kalla in vittnen.</t>
-  </si>
-  <si>
-    <t>Det är personer som vet något om händelserna. 2</t>
-  </si>
-  <si>
-    <t>Om domstolen inte är säker så ska den hellre fria än fälla den åtalade.</t>
-  </si>
-  <si>
-    <t>Är det en bra regel, tycker du?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The courts judge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Through a trial, the court decides whether the suspected criminal is guilty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The prosecutor and the suspect are then allowed to give their views on what happened. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the trial, the suspect is called the defendant. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The court then decides whether to acquit or convict the accused of the crime. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The decision is written down in the form of a judgment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The judgment also states the punishment to be given to the guilty party. </t>
-  </si>
-  <si>
-    <t>Both the prosecutor and the convicted person can appeal the judgment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The case can then be retried. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The prosecutor is sometimes dissatisfied because the sentence was too lenient. </t>
-  </si>
-  <si>
-    <t>The convicted person, on the other hand, may want another chance to prove his or her innocence, or receive a lighter sentence.</t>
-  </si>
-  <si>
-    <t>The Criminal Code is a section of the law book.</t>
-  </si>
-  <si>
-    <t>It describes the different types of crimes and how the courts should sentence a person who has committed a particular crime.</t>
-  </si>
-  <si>
-    <t>The courts cannot make up their own sentences.</t>
-  </si>
-  <si>
-    <t>The prosecutor tries to prove that the suspect is guilty of the crime through the indictment.</t>
-  </si>
-  <si>
-    <t>The judge presides over the trial.</t>
-  </si>
-  <si>
-    <t>He or she decides whether the defendant is guilty or not.</t>
-  </si>
-  <si>
-    <t>The defense counsel helps the defendant so that he or she is not unfairly convicted.</t>
-  </si>
-  <si>
-    <t>The defense counsel is often called a lawyer.</t>
-  </si>
-  <si>
-    <t>Both the prosecution and the defense can call witnesses.</t>
-  </si>
-  <si>
-    <t>These are people who know something about the events. 2</t>
-  </si>
-  <si>
-    <t>If the court is not sure, it should acquit rather than convict the defendant.</t>
-  </si>
-  <si>
-    <t>Do you think this is a good rule?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">法院做出判决 </t>
-  </si>
-  <si>
-    <t>通过审判，法院裁定犯罪嫌疑人是否有罪。</t>
-  </si>
-  <si>
-    <t>然后允许检察官和嫌疑人就所发生的事情发表意见。</t>
-  </si>
-  <si>
-    <t>审判期间，嫌疑人被称为被告。</t>
-  </si>
-  <si>
-    <t>然后，法庭裁定被告无罪还是有罪。</t>
-  </si>
-  <si>
-    <t>裁决以判决书的形式写下来。</t>
-  </si>
-  <si>
-    <t>判决书还规定了对有罪一方应判处的刑罚。</t>
-  </si>
-  <si>
-    <t>检察官和被定罪者均可对判决提出上诉。</t>
-  </si>
-  <si>
-    <t>然后案件可以重新审理。</t>
-  </si>
-  <si>
-    <t>检察官有时会因为判决过轻而感到不满。</t>
-  </si>
-  <si>
-    <t>另一方面，被定罪者可能希望再有一次机会证明自己无罪，或获得较轻的刑罚。</t>
-  </si>
-  <si>
-    <t>刑法》是法律书籍中的一个章节。</t>
-  </si>
-  <si>
-    <t>它描述了不同类型的罪行以及法院应如何对犯有特定罪行的人进行判决。</t>
-  </si>
-  <si>
-    <t>法院不能自行量刑。</t>
-  </si>
-  <si>
-    <t>检察官试图通过起诉书证明嫌疑人有罪。</t>
-  </si>
-  <si>
-    <t>法官主持审判。</t>
-  </si>
-  <si>
-    <t>他或她决定被告是否有罪。</t>
-  </si>
-  <si>
-    <t>辩护律师的作用是帮助被告，使其不被不公平地定罪。</t>
-  </si>
-  <si>
-    <t>辩护律师通常被称为律师。</t>
-  </si>
-  <si>
-    <t>检察官和辩护律师都可以传唤证人。</t>
-  </si>
-  <si>
-    <t>这些证人都是对事件有所了解的人。</t>
-  </si>
-  <si>
-    <t>如果法庭不确定，应该宣告被告无罪，而不是将其定罪。</t>
-  </si>
-  <si>
-    <t>您认为这是一条好规则吗？</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="191">
+  <si>
+    <t xml:space="preserve">nation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">offentlig sektor </t>
+  </si>
+  <si>
+    <t>offentligt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omsorg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opposition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partiprogram </t>
+  </si>
+  <si>
+    <t>polis</t>
+  </si>
+  <si>
+    <t>Politiker</t>
+  </si>
+  <si>
+    <t>politiska block</t>
+  </si>
+  <si>
+    <t>politiskt parti</t>
+  </si>
+  <si>
+    <t>privat</t>
+  </si>
+  <si>
+    <t>propaganda</t>
+  </si>
+  <si>
+    <t>Proposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regéring </t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>regler</t>
+  </si>
+  <si>
+    <t>reklam</t>
+  </si>
+  <si>
+    <t>religionsfrihet</t>
+  </si>
+  <si>
+    <t>representativ</t>
+  </si>
+  <si>
+    <t>demokrati</t>
+  </si>
+  <si>
+    <t>resurser</t>
+  </si>
+  <si>
+    <t>riksdag</t>
+  </si>
+  <si>
+    <t>Romarriket</t>
+  </si>
+  <si>
+    <t>räddningstjänst</t>
+  </si>
+  <si>
+    <t>ränta</t>
+  </si>
+  <si>
+    <t>rättegång</t>
+  </si>
+  <si>
+    <t>rösträtt</t>
+  </si>
+  <si>
+    <t>samhällskunskap</t>
+  </si>
+  <si>
+    <t>samhällstjänst</t>
+  </si>
+  <si>
+    <t>självförsörjning</t>
+  </si>
+  <si>
+    <t>skatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skräckvälde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skyddstillsyn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socialdemokraterna </t>
+  </si>
+  <si>
+    <t>socialtjänst</t>
+  </si>
+  <si>
+    <t>soffliggare</t>
+  </si>
+  <si>
+    <t>solidaritet</t>
+  </si>
+  <si>
+    <t>stad</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>statschef</t>
+  </si>
+  <si>
+    <t>statsminister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straffmyndig </t>
+  </si>
+  <si>
+    <t>än</t>
+  </si>
+  <si>
+    <t>tjänsteman</t>
+  </si>
+  <si>
+    <t>tryckfrihet</t>
+  </si>
+  <si>
+    <t>tull</t>
+  </si>
+  <si>
+    <t>uupphovsrätt</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>valhemlighet</t>
+  </si>
+  <si>
+    <t>valkampanj</t>
+  </si>
+  <si>
+    <t>valsedel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vittne </t>
+  </si>
+  <si>
+    <t>väljare</t>
+  </si>
+  <si>
+    <t>Vänsterpartiet</t>
+  </si>
+  <si>
+    <t>världssamhället</t>
+  </si>
+  <si>
+    <t>yttrandefrihet</t>
+  </si>
+  <si>
+    <t>åklagare</t>
+  </si>
+  <si>
+    <t>åsiktsfrihet</t>
+  </si>
+  <si>
+    <t>åsiktsförtryck</t>
+  </si>
+  <si>
+    <t>åtal</t>
+  </si>
+  <si>
+    <t>åtalad</t>
+  </si>
+  <si>
+    <t>överklaga</t>
+  </si>
+  <si>
+    <t>övervakare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public sector </t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">party program </t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>politicians</t>
+  </si>
+  <si>
+    <t>political blocs</t>
+  </si>
+  <si>
+    <t>political party</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">government </t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>religious freedom</t>
+  </si>
+  <si>
+    <t>representative</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>Roman Empire</t>
+  </si>
+  <si>
+    <t>civil defense</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>voting rights</t>
+  </si>
+  <si>
+    <t>civics</t>
+  </si>
+  <si>
+    <t>community service</t>
+  </si>
+  <si>
+    <t>self-sufficiency</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reign of terror </t>
+  </si>
+  <si>
+    <t xml:space="preserve">probation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Democrats </t>
+  </si>
+  <si>
+    <t>social services</t>
+  </si>
+  <si>
+    <t>couch potatoes</t>
+  </si>
+  <si>
+    <t>solidarity</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>head of state</t>
+  </si>
+  <si>
+    <t>prime minister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult </t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>civil servant</t>
+  </si>
+  <si>
+    <t>freedom of the press</t>
+  </si>
+  <si>
+    <t>customs</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>elections</t>
+  </si>
+  <si>
+    <t>election secrecy</t>
+  </si>
+  <si>
+    <t>election campaign</t>
+  </si>
+  <si>
+    <t>ballot paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">witness </t>
+  </si>
+  <si>
+    <t>voters</t>
+  </si>
+  <si>
+    <t>Left Party</t>
+  </si>
+  <si>
+    <t>world society</t>
+  </si>
+  <si>
+    <t>freedom of expression</t>
+  </si>
+  <si>
+    <t>prosecutor</t>
+  </si>
+  <si>
+    <t>freedom of opinion</t>
+  </si>
+  <si>
+    <t>oppression of opinion</t>
+  </si>
+  <si>
+    <t>prosecution</t>
+  </si>
+  <si>
+    <t>defendant</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>probation officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">游牧民族 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公共部门 </t>
+  </si>
+  <si>
+    <t>公共</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关怀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">反对党 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">党纲 </t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>政治家</t>
+  </si>
+  <si>
+    <t>政治集团</t>
+  </si>
+  <si>
+    <t>政党</t>
+  </si>
+  <si>
+    <t>私人</t>
+  </si>
+  <si>
+    <t>宣传</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政府 </t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>宗教自由</t>
+  </si>
+  <si>
+    <t>代议制</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>民防</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>审判</t>
+  </si>
+  <si>
+    <t>投票权</t>
+  </si>
+  <si>
+    <t>公民教育</t>
+  </si>
+  <si>
+    <t>社区服务</t>
+  </si>
+  <si>
+    <t>自给自足</t>
+  </si>
+  <si>
+    <t>税务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">恐怖统治 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">缓刑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">社会民主人士 </t>
+  </si>
+  <si>
+    <t>社会服务</t>
+  </si>
+  <si>
+    <t>沙发土豆</t>
+  </si>
+  <si>
+    <t>团结</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>首相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刑事犯罪 </t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
+  <si>
+    <t>公务员</t>
+  </si>
+  <si>
+    <t>新闻自由</t>
+  </si>
+  <si>
+    <t>海关</t>
+  </si>
+  <si>
+    <t>版权</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>选举保密</t>
+  </si>
+  <si>
+    <t>竞选活动</t>
+  </si>
+  <si>
+    <t>选票</t>
+  </si>
+  <si>
+    <t xml:space="preserve">习惯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">证人 </t>
+  </si>
+  <si>
+    <t>选民</t>
+  </si>
+  <si>
+    <t>左翼党</t>
+  </si>
+  <si>
+    <t>世界社会</t>
+  </si>
+  <si>
+    <t>言论自由</t>
+  </si>
+  <si>
+    <t>检察官</t>
+  </si>
+  <si>
+    <t>舆论压迫</t>
+  </si>
+  <si>
+    <t>起诉</t>
+  </si>
+  <si>
+    <t>被告</t>
+  </si>
+  <si>
+    <t>上诉</t>
+  </si>
+  <si>
+    <t>缓刑监督官</t>
   </si>
 </sst>
 </file>
@@ -600,7 +966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B19188-33B8-4B2D-B216-6CAC61184FCC}">
   <dimension ref="A2:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1141,8 +1509,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A105:C105"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A84:C84"/>
@@ -1182,6 +1548,8 @@
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A105:C105"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A38:C38"/>
@@ -1254,18 +1622,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F65C2-4461-4A0A-9516-4C7F7EAE634F}">
-  <dimension ref="A1:C92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28595A0C-2B22-452E-BB8F-A452345B0CB4}">
+  <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A93" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A263" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="64.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.89453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.05078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1277,14 +1645,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1303,14 +1671,14 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1329,14 +1697,14 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1355,14 +1723,14 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1381,14 +1749,14 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1407,14 +1775,14 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1433,14 +1801,14 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1459,14 +1827,14 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1485,14 +1853,14 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1511,14 +1879,14 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1537,14 +1905,14 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1563,14 +1931,14 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1589,14 +1957,14 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1615,14 +1983,14 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1641,14 +2009,14 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1667,14 +2035,14 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1693,14 +2061,14 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1719,14 +2087,14 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1745,14 +2113,14 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1771,105 +2139,1383 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="262">
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="A87:C87"/>

--- a/Samhallet_translate/temptranslate.xlsx
+++ b/Samhallet_translate/temptranslate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Samhallet_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493D7DA-68F1-4F04-8D87-8284B59CD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD50616-2FDA-4C37-A3C8-28E07E82E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="44" r:id="rId2"/>
+    <sheet name="Sheet18" sheetId="61" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,132 +37,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Mänskliga rättigheter</t>
-  </si>
-  <si>
-    <t>De mänskliga rättigheterna säger att alla människor i världen är lika mycket värda, och har rätt till ett liv i fred och frihet.</t>
-  </si>
-  <si>
-    <t>Om du är rik eller fattig, ung eller gammal, mörk eller ljus, ska alltså inte spela någon roll!</t>
-  </si>
-  <si>
-    <t>Våra rättigheter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efter två svåra världskrig på 1900-talet gick världens länder tillsammans för att bilda Förenta Nationerna (FN). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länderna i FN skrev ner en lång lista över rättigheter, som gäller lika för alla på jorden. </t>
-  </si>
-  <si>
-    <t>Några exempel på de rättigheter som gäller alla människor i världen är:</t>
-  </si>
-  <si>
-    <t>Alla människor är födda fria och lika i värde och rättigheter</t>
-  </si>
-  <si>
-    <t>Alla har rätt att påverka hur landet där man bor styrs (även barn!)</t>
-  </si>
-  <si>
-    <t>Ingen får utsättas för orättvisa straff eller tortyr</t>
-  </si>
-  <si>
-    <t>Ingen ska behöva svälta, frysa eller bo på gatan</t>
-  </si>
-  <si>
-    <t>Alla barn har rätt att gå i sKolan, gratis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sverige har skrivit in FN:s rättigheter i grundlagarna (se sid. 15). </t>
-  </si>
-  <si>
-    <t>Politikerna i riksdagen får inte skapa andra lagar som bryter mot grundlagarna eller som hotar våra rättigheter.</t>
-  </si>
-  <si>
-    <t>Human rights</t>
-  </si>
-  <si>
-    <t>Human rights say that everyone in the world has equal dignity and the right to live in peace and freedom.</t>
-  </si>
-  <si>
-    <t>So whether you are rich or poor, young or old, dark or light should not matter!</t>
-  </si>
-  <si>
-    <t>Our rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After two difficult world wars in the 20th century, the countries of the world came together to form the United Nations (UN). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The countries of the UN wrote down a long list of rights, which apply equally to everyone on earth. </t>
-  </si>
-  <si>
-    <t>Some examples of the rights that apply to all people in the world are</t>
-  </si>
-  <si>
-    <t>All people are born free and equal in value and rights</t>
-  </si>
-  <si>
-    <t>Everyone has the right to have a say in how the country they live in is run (including children!)</t>
-  </si>
-  <si>
-    <t>No one should be subjected to unjust punishment or torture</t>
-  </si>
-  <si>
-    <t>No one should have to starve, freeze or live on the streets</t>
-  </si>
-  <si>
-    <t>All children have the right to go to school, free of charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden has written UN rights into its constitution (see page 15). </t>
-  </si>
-  <si>
-    <t>Politicians in the Riksdag must not create other laws that violate the constitution or threaten our rights.</t>
-  </si>
-  <si>
-    <t>人权</t>
-  </si>
-  <si>
-    <t>人权意味着世界上所有人都享有平等的尊严以及和平与自由生活的权利。</t>
-  </si>
-  <si>
-    <t>因此，无论你是富有还是贫穷、年轻还是年老、肤色深还是肤色浅，都不重要！</t>
-  </si>
-  <si>
-    <t>我们的权利</t>
-  </si>
-  <si>
-    <t>在经历了 20 世纪两次艰难的世界大战之后，世界各国走到了一起，成立了联合国（UN）。</t>
-  </si>
-  <si>
-    <t>联合国国家写下了一长串权利清单，这些权利平等地适用于地球上的每一个人。</t>
-  </si>
-  <si>
-    <t>适用于世界上所有人的权利包括</t>
-  </si>
-  <si>
-    <t>人人生而自由，在价值和权利上一律平等</t>
-  </si>
-  <si>
-    <t>每个人都有权对自己生活的国家的管理方式拥有发言权（包括儿童！）。</t>
-  </si>
-  <si>
-    <t>任何人都不应受到不公正的惩罚或酷刑</t>
-  </si>
-  <si>
-    <t>任何人都不应挨饿受冻或流落街头</t>
-  </si>
-  <si>
-    <t>所有儿童都有权免费上学</t>
-  </si>
-  <si>
-    <t>瑞典已将联合国权利写入宪法（见第 15 页）。</t>
-  </si>
-  <si>
-    <t>议会中的政治家不得制定其他违反宪法或威胁我们权利的法律。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>不同种类的树木、花朵和农作物。听一遍,然后重复。</t>
+  </si>
+  <si>
+    <t>树干</t>
+  </si>
+  <si>
+    <t>圆锥</t>
+  </si>
+  <si>
+    <t>针叶</t>
+  </si>
+  <si>
+    <t>冷杉</t>
+  </si>
+  <si>
+    <t>叶子</t>
+  </si>
+  <si>
+    <t>桦树</t>
+  </si>
+  <si>
+    <t>橡树</t>
+  </si>
+  <si>
+    <t>枫树</t>
+  </si>
+  <si>
+    <t>郁金香</t>
+  </si>
+  <si>
+    <t>毛茛</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>风信子</t>
+  </si>
+  <si>
+    <t>农作物</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>燕麦</t>
+  </si>
+  <si>
+    <t>水稻</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>Different kinds of trees, flowers and crops. listen and repeat.</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>cone</t>
+  </si>
+  <si>
+    <t>needles</t>
+  </si>
+  <si>
+    <t>fir</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>birch</t>
+  </si>
+  <si>
+    <t>oak</t>
+  </si>
+  <si>
+    <t>maple</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>buttercup</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>bluebell</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>maize</t>
   </si>
 </sst>
 </file>
@@ -522,562 +504,610 @@
       <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="94.734375" customWidth="1"/>
-    <col min="2" max="2" width="96.578125" customWidth="1"/>
-    <col min="3" max="3" width="93.83984375" customWidth="1"/>
+    <col min="1" max="1" width="94.7265625" customWidth="1"/>
+    <col min="2" max="2" width="96.58984375" customWidth="1"/>
+    <col min="3" max="3" width="93.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A88:C88"/>
@@ -1102,71 +1132,23 @@
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1174,227 +1156,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E865F-8477-46D6-9C4B-A421484A73B2}">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B340CA2A-1A46-4027-886D-B287FA300AF7}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C55"/>
+      <selection sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="90.1015625" customWidth="1"/>
-    <col min="2" max="2" width="81.578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B53" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Samhallet_translate/temptranslate.xlsx
+++ b/Samhallet_translate/temptranslate.xlsx
@@ -1,150 +1,226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Samhallet_translate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\LeiLei\translate\NO5\Samhallet_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD50616-2FDA-4C37-A3C8-28E07E82E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D8B51A-4407-40B8-9142-6FA0899A25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet18" sheetId="61" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="62" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>不同种类的树木、花朵和农作物。听一遍,然后重复。</t>
-  </si>
-  <si>
-    <t>树干</t>
-  </si>
-  <si>
-    <t>圆锥</t>
-  </si>
-  <si>
-    <t>针叶</t>
-  </si>
-  <si>
-    <t>冷杉</t>
-  </si>
-  <si>
-    <t>叶子</t>
-  </si>
-  <si>
-    <t>桦树</t>
-  </si>
-  <si>
-    <t>橡树</t>
-  </si>
-  <si>
-    <t>枫树</t>
-  </si>
-  <si>
-    <t>郁金香</t>
-  </si>
-  <si>
-    <t>毛茛</t>
-  </si>
-  <si>
-    <t>向日葵</t>
-  </si>
-  <si>
-    <t>风信子</t>
-  </si>
-  <si>
-    <t>农作物</t>
-  </si>
-  <si>
-    <t>小麦</t>
-  </si>
-  <si>
-    <t>燕麦</t>
-  </si>
-  <si>
-    <t>水稻</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>Different kinds of trees, flowers and crops. listen and repeat.</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>cone</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>fir</t>
-  </si>
-  <si>
-    <t>leaves</t>
-  </si>
-  <si>
-    <t>birch</t>
-  </si>
-  <si>
-    <t>oak</t>
-  </si>
-  <si>
-    <t>maple</t>
-  </si>
-  <si>
-    <t>tulip</t>
-  </si>
-  <si>
-    <t>buttercup</t>
-  </si>
-  <si>
-    <t>sunflower</t>
-  </si>
-  <si>
-    <t>bluebell</t>
-  </si>
-  <si>
-    <t>crops</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>oats</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>maize</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+  <si>
+    <t>Instruktioner för läxförhör</t>
+  </si>
+  <si>
+    <t>Eleverna ska kunna</t>
+  </si>
+  <si>
+    <t>OBS! Jag kommer även använda mig av ljudexempel som vi inte har lyssnat på!</t>
+  </si>
+  <si>
+    <t>Exempel på instrument samt orkestersektion</t>
+  </si>
+  <si>
+    <t>Stråksektion</t>
+  </si>
+  <si>
+    <t>Fiol</t>
+  </si>
+  <si>
+    <t>Hilary Hahn - J.S. Bach: Partita for Violin Solo No. 1 in B Minor, BWV 1002 - 4. Doubl...</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>Yo-Yo Ma - Bach: Cello Suite No. 1 in G Major, Prélude (Official Video)</t>
+  </si>
+  <si>
+    <t>Kontrabas</t>
+  </si>
+  <si>
+    <t>SPAIN (Chick Corea) solo upright bass arrangement</t>
+  </si>
+  <si>
+    <t>Träblåssektion</t>
+  </si>
+  <si>
+    <t>Flöjt</t>
+  </si>
+  <si>
+    <t>Elisabeth Wentland - Kuhlau fantasy for flute solo op. 38 D major</t>
+  </si>
+  <si>
+    <t>Klarinett</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/rqml8xhh7u8</t>
+  </si>
+  <si>
+    <t>Bleckblåssektion</t>
+  </si>
+  <si>
+    <t>Trombon</t>
+  </si>
+  <si>
+    <t>Bolero Trombone Solo</t>
+  </si>
+  <si>
+    <t>Trumpet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DYchWuGbmHI</t>
+  </si>
+  <si>
+    <t>Tuba</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OTWpW5pz_mU</t>
+  </si>
+  <si>
+    <t>Valthorn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/shorts/E66v-lBIZEc</t>
+  </si>
+  <si>
+    <t>Utanför sektion</t>
+  </si>
+  <si>
+    <t>Harpa</t>
+  </si>
+  <si>
+    <t>J.S. Bach - Toccata and Fugue in D Minor BWV 565 // Amy Turk, Harp</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Chopin - Fantaisie-Impromptu (Op. 66)</t>
+  </si>
+  <si>
+    <t>Vad en dirigent gör</t>
+  </si>
+  <si>
+    <t>namnen på de instrument som vi har gått igenom</t>
+  </si>
+  <si>
+    <t>vilka instrument som tillhör stråk-, träblås, bleckblås samt slagverksektionen</t>
+  </si>
+  <si>
+    <t>känna igen via ljud- och bildexempel</t>
+  </si>
+  <si>
+    <t>作业查询说明</t>
+  </si>
+  <si>
+    <t>学生应该能够</t>
+  </si>
+  <si>
+    <t>注意！我还会使用我们没有听过的音频示例！</t>
+  </si>
+  <si>
+    <t>乐器和管弦乐队声部示例</t>
+  </si>
+  <si>
+    <t>弦乐组</t>
+  </si>
+  <si>
+    <t>小提琴</t>
+  </si>
+  <si>
+    <t>希拉里-哈恩 - J.S.巴赫：B 小调第一小提琴独奏帕蒂塔，BWV 1002 - 第 4 倍速...</t>
+  </si>
+  <si>
+    <t>大提琴</t>
+  </si>
+  <si>
+    <t>马友友 - 巴赫：G 大调第一大提琴组曲，前奏曲（官方视频）</t>
+  </si>
+  <si>
+    <t>低音提琴</t>
+  </si>
+  <si>
+    <t>西班牙》（奇克-科里亚）立式低音提琴独奏编曲</t>
+  </si>
+  <si>
+    <t>木管乐器组</t>
+  </si>
+  <si>
+    <t>长笛</t>
+  </si>
+  <si>
+    <t>Elisabeth Wentland - Kuhlau fantasy for flute solo op. 38 D大调</t>
+  </si>
+  <si>
+    <t>单簧管</t>
+  </si>
+  <si>
+    <t>铜管乐器组</t>
+  </si>
+  <si>
+    <t>长号</t>
+  </si>
+  <si>
+    <t>长号独奏</t>
+  </si>
+  <si>
+    <t>小号</t>
+  </si>
+  <si>
+    <t>大号</t>
+  </si>
+  <si>
+    <t>法国号</t>
+  </si>
+  <si>
+    <t>外围声部</t>
+  </si>
+  <si>
+    <t>竖琴</t>
+  </si>
+  <si>
+    <t>巴赫 - D小调托卡塔与赋格 BWV 565 // 艾米-特克，竖琴</t>
+  </si>
+  <si>
+    <t>钢琴</t>
+  </si>
+  <si>
+    <t>肖邦 - 幻想曲-即兴曲（作品 66）</t>
+  </si>
+  <si>
+    <t>通过DeepL.com（免费版）翻译</t>
+  </si>
+  <si>
+    <t>指挥的作用</t>
+  </si>
+  <si>
+    <t>我们所学乐器的名称</t>
+  </si>
+  <si>
+    <t>认识哪些乐器属于弦乐、木管、铜管和打击乐部分</t>
+  </si>
+  <si>
+    <t>通过声音和图片识别</t>
   </si>
 </sst>
 </file>
@@ -504,586 +580,586 @@
       <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="94.7265625" customWidth="1"/>
-    <col min="2" max="2" width="96.58984375" customWidth="1"/>
+    <col min="2" max="2" width="96.54296875" customWidth="1"/>
     <col min="3" max="3" width="93.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A105:C105"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A38:C38"/>
@@ -1108,47 +1184,47 @@
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1156,193 +1232,362 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B340CA2A-1A46-4027-886D-B287FA300AF7}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845AD007-8CDF-4F5B-89F7-6573CF0E781B}">
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B53" t="s">
-        <v>17</v>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Samhallet_translate/temptranslate.xlsx
+++ b/Samhallet_translate/temptranslate.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\LeiLei\translate\NO5\Samhallet_translate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Samhallet_translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D8B51A-4407-40B8-9142-6FA0899A25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96168DC-EC39-4DA6-A85C-D9B049019DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{FA06FF21-D964-47C3-BEA3-34B8D85A3A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="62" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="63" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="68" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
   <si>
     <t>Instruktioner för läxförhör</t>
   </si>
@@ -221,6 +223,342 @@
   </si>
   <si>
     <t>通过声音和图片识别</t>
+  </si>
+  <si>
+    <t>Europeiska unionen</t>
+  </si>
+  <si>
+    <t>Sverige och 26 andra europeiska länder samarbetar i en organisation som heter Europeiska unionen (EU).</t>
+  </si>
+  <si>
+    <t>Några av EU:s uppgifter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred och säkerhet </t>
+  </si>
+  <si>
+    <t>Miljö</t>
+  </si>
+  <si>
+    <t>Handel</t>
+  </si>
+  <si>
+    <t>Jordbruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindra att brottslingar rör sig mellan länderna EU bildades 1952. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Då hade Europa härjats av krig under flera hundra år. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länderna som bildade EU bestämde att människor lättare skulle kunna färdas över gränserna inom unionen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">På så sätt skulle invånarna i Europas länder lära känna varandra bättre och göra fler affärer ihop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ökad handel och fler kontakter mellan länderna skulle minska risken för nya krig. </t>
+  </si>
+  <si>
+    <t>Utökat samarbete</t>
+  </si>
+  <si>
+    <t>Freden och handeln är fortfarande viktiga uppgifter för EU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Några andra stora frågor för unionen är: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miljö: Tidigare behövde inte företagen tänka så mycket på vad de släppte ut i naturen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu har EU bestämt att alla företag inom unionen måste betala för sina giftiga utsläpp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Företag som inte släpper ut så mycket gifter kan alltså spara pengar. </t>
+  </si>
+  <si>
+    <t>Samtidigt mår miljön mycket bättre!</t>
+  </si>
+  <si>
+    <t>För att slippa växla pengar har flera av EU:s länder skaffat en gemensam valutaeuron.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordbruk: Nästan hälften av EU:s gemensamma Pengar går till jordbruket. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidigare var EU:s Politiker oroliga för att det inte odlades tillräckligt mycket mat i Europa. </t>
+  </si>
+  <si>
+    <t>Därför satsades mycket pengar på jordbruket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idag finns det tillräckligt med mat. </t>
+  </si>
+  <si>
+    <t>Men utan bidragen från EU skulle många bönder få ekonomiska problem.</t>
+  </si>
+  <si>
+    <t>The European Union</t>
+  </si>
+  <si>
+    <t>Sweden and 26 other European countries work together in an organization called the European Union (EU).</t>
+  </si>
+  <si>
+    <t>Some of the EU's tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peace and security </t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing criminals from moving between countries The EU was created in 1952. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By then, Europe had been ravaged by war for several hundred years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The countries that formed the EU decided that people should be able to move more easily across borders within the Union. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This would help people in European countries get to know each other better and do more business together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased trade and contacts between countries would reduce the risk of new wars. </t>
+  </si>
+  <si>
+    <t>Enhanced cooperation</t>
+  </si>
+  <si>
+    <t>Peace and trade remain important tasks for the EU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some other big issues for the Union are: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment: In the past, companies didn't have to think too much about what they put into the environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, the EU has decided that all companies in the Union must pay for their toxic emissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies that don't emit so many toxins can save money. </t>
+  </si>
+  <si>
+    <t>And the environment is much better off!</t>
+  </si>
+  <si>
+    <t>To avoid having to exchange money, several EU countries have adopted a single currency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture: Almost half of the EU's common money goes to agriculture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past, EU politicians were concerned that not enough food was being grown in Europe. </t>
+  </si>
+  <si>
+    <t>So they spent a lot of money on agriculture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, there is enough food. </t>
+  </si>
+  <si>
+    <t>But without EU subsidies, many farmers would face financial problems.</t>
+  </si>
+  <si>
+    <t>Translated with DeepL.com (free version)</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>瑞典和其他 26 个欧洲国家共同组成了一个名为欧洲联盟（欧盟）的组织。</t>
+  </si>
+  <si>
+    <t>欧盟的部分任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">和平与安全 </t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>贸易和商业</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>当时，欧洲已被战争蹂躏了数百年。</t>
+  </si>
+  <si>
+    <t>成立欧盟的国家决定让人们更容易在欧盟内部进行跨国旅行。</t>
+  </si>
+  <si>
+    <t>这将有助于欧洲各国人民更好地相互了解，共同开展更多业务。</t>
+  </si>
+  <si>
+    <t>国家间贸易和接触的增加将降低新战争的风险。</t>
+  </si>
+  <si>
+    <t>加强合作</t>
+  </si>
+  <si>
+    <t>和平与贸易仍然是欧盟的重要任务。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欧盟面临的其他一些重大问题包括 </t>
+  </si>
+  <si>
+    <t>环境：过去，公司不必过多考虑他们向环境中排放了什么。</t>
+  </si>
+  <si>
+    <t>现在，欧盟已经决定，欧盟内的所有公司都必须为其有毒排放物买单。</t>
+  </si>
+  <si>
+    <t>不排放那么多毒素的公司可以节省开支。</t>
+  </si>
+  <si>
+    <t>而环境也会得到更好的保护！</t>
+  </si>
+  <si>
+    <t>为了避免货币兑换，一些欧盟国家采用了单一货币。</t>
+  </si>
+  <si>
+    <t>农业：欧盟近一半的共同资金用于农业。</t>
+  </si>
+  <si>
+    <t>过去，欧盟的政治家们担心欧洲种植的粮食不够。</t>
+  </si>
+  <si>
+    <t>因此，他们在农业上花费了大量资金。</t>
+  </si>
+  <si>
+    <t>如今，粮食已经足够。</t>
+  </si>
+  <si>
+    <t>但是，如果没有欧盟的补贴，许多农民将面临经济问题。</t>
+  </si>
+  <si>
+    <t>防止罪犯在国家间游走, 欧盟成立于 1952 年。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underhållning och Kultur kan användas både som ett rent nöje, och för att vi ska lära oss något. </t>
+  </si>
+  <si>
+    <t>Spännande filmer, vacker musik, roliga spel och intressanta teveprogram kan ju både roa oss och ge nya kunskaper, eller idéer.</t>
+  </si>
+  <si>
+    <t>Vilka typer av information Kan du hitta på den här sidan?</t>
+  </si>
+  <si>
+    <t>Vilka litar du på, och vilka känns inte pålitliga?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varför tycker du så? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blir vi smartare av all information? </t>
+  </si>
+  <si>
+    <t>KÖP PLÄTTENS  BURGARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FETA OCH NYTTIGA! </t>
+  </si>
+  <si>
+    <t>Rösta på OSS</t>
+  </si>
+  <si>
+    <t>Ikväll på torget spelar sina argaste punklåtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varje dag möts vi av cirka 3000 budskap. </t>
+  </si>
+  <si>
+    <t>Det mesta är reklam. Ibland är det skönt att skydda sig bakom en bra bok!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment and culture can be used both for pure pleasure and for learning. </t>
+  </si>
+  <si>
+    <t>Exciting movies, beautiful music, fun games and interesting TV shows can both entertain us and provide new knowledge or ideas.</t>
+  </si>
+  <si>
+    <t>What types of information can you find on this site?</t>
+  </si>
+  <si>
+    <t>Which ones do you trust, and which ones do you think are not reliable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you think so? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does all this information make us smarter? </t>
+  </si>
+  <si>
+    <t>BUY THE PLATE OF BURGERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT AND HEALTHY! </t>
+  </si>
+  <si>
+    <t>Vote for us</t>
+  </si>
+  <si>
+    <t>Tonight in the square playing their angriest punk songs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every day we encounter around 3000 messages. </t>
+  </si>
+  <si>
+    <t>Most of them are advertisements. Sometimes it's nice to hide behind a good book!</t>
+  </si>
+  <si>
+    <t>娱乐和文化既可以用来纯粹消遣，也可以用来学习。</t>
+  </si>
+  <si>
+    <t>精彩的电影、动听的音乐、有趣的游戏和有趣的电视节目既能娱乐我们，又能提供新的知识或想法。</t>
+  </si>
+  <si>
+    <t>您能在本网站上找到哪些类型的信息？</t>
+  </si>
+  <si>
+    <t>你相信哪些，认为哪些不可靠？</t>
+  </si>
+  <si>
+    <t>为什么这么认为？</t>
+  </si>
+  <si>
+    <t>这些信息会让我们变得更聪明吗？</t>
+  </si>
+  <si>
+    <t>买一盘汉堡</t>
+  </si>
+  <si>
+    <t>脂肪和健康！</t>
+  </si>
+  <si>
+    <t>为我们投票</t>
+  </si>
+  <si>
+    <t>今晚在广场上演奏他们最愤怒的朋克歌曲</t>
+  </si>
+  <si>
+    <t>我们每天都会遇到大约 3000 条信息。</t>
+  </si>
+  <si>
+    <t>其中大部分是广告。有时候，躲在一本好书后面也不错！</t>
   </si>
 </sst>
 </file>
@@ -256,7 +594,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -580,562 +919,610 @@
       <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="94.7265625" customWidth="1"/>
     <col min="2" max="2" width="96.54296875" customWidth="1"/>
     <col min="3" max="3" width="93.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A88:C88"/>
@@ -1160,71 +1547,23 @@
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1235,359 +1574,1331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845AD007-8CDF-4F5B-89F7-6573CF0E781B}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="28.36328125" customWidth="1"/>
     <col min="2" max="2" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B77" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B80" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B90" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B99" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B102" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B105" t="s">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF5F867-39BD-4B34-823A-5ACF205870DA}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A101" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="77.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="100">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22FEBEA-9434-435F-BA3E-ED9FD51E9E03}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="98.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C47" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
